--- a/services/templates/db_dict_database.xlsx
+++ b/services/templates/db_dict_database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc/Documents/projects/goDict/resources/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc/Documents/projects/goDict/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA04A23-CB3E-AE4E-9593-F120C584FD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9650EB-81DA-B046-9796-7439AF5163EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="620" windowWidth="24920" windowHeight="20980" activeTab="1" xr2:uid="{E4A8AA6F-7D97-8144-9BC8-6EB0C1D8BBE3}"/>
+    <workbookView xWindow="13460" yWindow="620" windowWidth="24940" windowHeight="20980" activeTab="1" xr2:uid="{E4A8AA6F-7D97-8144-9BC8-6EB0C1D8BBE3}"/>
   </bookViews>
   <sheets>
     <sheet name="模板-database" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>数据库字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>字段名</t>
-  </si>
-  <si>
-    <t>长度, 精度</t>
   </si>
   <si>
     <t>允许空值</t>
@@ -118,12 +115,87 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +257,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +328,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -583,19 +665,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -608,10 +690,10 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -624,7 +706,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -647,10 +729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142D0332-9E34-C14B-8B21-D752DBE43C21}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -658,33 +740,42 @@
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
     <col min="10" max="10" width="43.5" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24" style="1" customWidth="1"/>
+    <col min="14" max="14" width="46" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="10.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="40.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35" customHeight="1">
+    <row r="1" spans="1:18" ht="35" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="3" spans="1:18" ht="20" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -694,7 +785,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
+    <row r="4" spans="1:18" ht="20" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
@@ -705,12 +796,12 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
+    <row r="5" spans="1:18" ht="20" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -720,7 +811,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
+    <row r="6" spans="1:18" ht="20" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
@@ -731,12 +822,12 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
+    <row r="7" spans="1:18" ht="20" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -746,7 +837,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
+    <row r="8" spans="1:18" ht="20" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -757,9 +848,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+    <row r="9" spans="1:18" ht="20" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -767,26 +858,47 @@
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/services/templates/db_dict_database.xlsx
+++ b/services/templates/db_dict_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc/Documents/projects/goDict/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9650EB-81DA-B046-9796-7439AF5163EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F84CA-209A-4C4A-8D27-D4CFCFFF9A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="620" windowWidth="24940" windowHeight="20980" activeTab="1" xr2:uid="{E4A8AA6F-7D97-8144-9BC8-6EB0C1D8BBE3}"/>
+    <workbookView xWindow="1000" yWindow="620" windowWidth="24940" windowHeight="20980" activeTab="1" xr2:uid="{E4A8AA6F-7D97-8144-9BC8-6EB0C1D8BBE3}"/>
   </bookViews>
   <sheets>
     <sheet name="模板-database" sheetId="2" r:id="rId1"/>
@@ -279,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -302,13 +302,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +371,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,10 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142D0332-9E34-C14B-8B21-D752DBE43C21}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -755,7 +801,7 @@
     <col min="19" max="19" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35" customHeight="1">
+    <row r="1" spans="1:10" ht="35" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -770,7 +816,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="20" customHeight="1">
+    <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -785,7 +831,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="20" customHeight="1">
+    <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
@@ -796,7 +842,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="20" customHeight="1">
+    <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -811,7 +857,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="20" customHeight="1">
+    <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
@@ -822,7 +868,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1">
+    <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -837,7 +883,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1">
+    <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -848,7 +894,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="20" customHeight="1">
+    <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -879,31 +925,37 @@
       <c r="J9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="4" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/services/templates/db_dict_database.xlsx
+++ b/services/templates/db_dict_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc/Documents/projects/goDict/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F84CA-209A-4C4A-8D27-D4CFCFFF9A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDCDFE8-2427-1C45-AF17-5A8E50984063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="620" windowWidth="24940" windowHeight="20980" activeTab="1" xr2:uid="{E4A8AA6F-7D97-8144-9BC8-6EB0C1D8BBE3}"/>
+    <workbookView xWindow="1020" yWindow="620" windowWidth="24940" windowHeight="20980" xr2:uid="{E4A8AA6F-7D97-8144-9BC8-6EB0C1D8BBE3}"/>
   </bookViews>
   <sheets>
     <sheet name="模板-database" sheetId="2" r:id="rId1"/>
@@ -36,61 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
-  <si>
-    <t>数据库字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>允许空值</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>自增</t>
-  </si>
-  <si>
-    <t>唯一</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>（无）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,7 +50,210 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据表：</t>
+    <t>表名/Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型/Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明/Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构/Stru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小数
+Len, Prec, Rad</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>允许空值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Nullable</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Default</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型
+Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名
+Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主键</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Primary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自增</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+AutoInc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Unique</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,6 +267,66 @@
       </rPr>
       <t>说明</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Memo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引名
+Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段
+Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键
+Primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一
+Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明
+Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表/Table：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库字典/Database Dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库名/Database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量/Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清单/List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名
+Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,7 +338,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>长度</t>
+      <t>类型</t>
     </r>
     <r>
       <rPr>
@@ -133,61 +347,9 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>精度</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
+      <t xml:space="preserve">
+Type</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,19 +523,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,6 +531,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,32 +857,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8E46A-18F5-FC44-9088-24CB510B3A38}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="53.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -736,10 +895,10 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -750,18 +909,18 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -777,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142D0332-9E34-C14B-8B21-D752DBE43C21}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -803,25 +962,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="35" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -844,10 +1003,10 @@
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -870,10 +1029,10 @@
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -894,62 +1053,62 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+    <row r="9" spans="1:10" ht="40" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
